--- a/登録用紙/作成済み生徒情報/2023年度生徒情報登録用紙.xlsx
+++ b/登録用紙/作成済み生徒情報/2023年度生徒情報登録用紙.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keito\OneDrive\ドキュメント\GitHub\AI_camera\登録用紙\作成済み生徒情報\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1991D146-0FA8-4366-AF52-C7247C9067F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87D9800A-88BE-434D-9769-B18B92D4F45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>学籍番号</t>
   </si>
@@ -46,13 +46,16 @@
     <t>本番</t>
   </si>
   <si>
-    <t>入力が終わったら”名前を付けて保存”をして”登録用紙”フォルダの中の”作成済み生徒情報”に保存してください</t>
+    <t>入力が終わったら名前を変えずに”名前を付けて保存”をして</t>
   </si>
   <si>
     <t>285748</t>
   </si>
   <si>
     <t>窪田正孝</t>
+  </si>
+  <si>
+    <t>”登録用紙”フォルダの中の”作成済み生徒情報”に保存してください</t>
   </si>
   <si>
     <t>学籍番号は半角厳守</t>
@@ -71,16 +74,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>田中</t>
+    <t>浜田</t>
     <rPh sb="0" eb="2">
-      <t>タナカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>田島</t>
-    <rPh sb="0" eb="2">
-      <t>タジマ</t>
+      <t>ハマダ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -92,13 +88,23 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ユニクロ</t>
+    <t>歌</t>
+    <rPh sb="0" eb="1">
+      <t>ウタ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>真田</t>
+    <t>田中</t>
     <rPh sb="0" eb="2">
-      <t>サナダ</t>
+      <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>田島</t>
+    <rPh sb="0" eb="2">
+      <t>タジマ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -471,15 +477,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:N999"/>
+  <dimension ref="A2:S999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -493,7 +499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
@@ -504,10 +510,10 @@
         <v>210103</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -523,10 +529,10 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="1">
-        <v>388333</v>
+        <v>219173</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>8</v>
@@ -534,8 +540,12 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="1" t="s">
@@ -547,13 +557,24 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="1">
-        <v>232442</v>
+        <v>732743</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1"/>
@@ -561,13 +582,13 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="1">
-        <v>243224</v>
+        <v>739473</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="1"/>
@@ -575,13 +596,13 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="1">
-        <v>223452</v>
+        <v>272772</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="1"/>
@@ -589,21 +610,21 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="1">
-        <v>422422</v>
+        <v>183283</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="1"/>
@@ -611,9 +632,9 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="1"/>
@@ -621,9 +642,9 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="1"/>
@@ -631,25 +652,25 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="H16" s="1"/>
@@ -6554,12 +6575,13 @@
       <c r="I999" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A4:B8"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K4:R4"/>
+    <mergeCell ref="K5:S5"/>
     <mergeCell ref="F4:G8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
